--- a/data/pca/factorExposure/factorExposure_2014-10-01.xlsx
+++ b/data/pca/factorExposure/factorExposure_2014-10-01.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="114">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,21 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
+  </si>
+  <si>
+    <t>factor10</t>
+  </si>
+  <si>
+    <t>factor11</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +713,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:L104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:12">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,33 +738,63 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B2">
-        <v>0.007847123918132429</v>
+        <v>0.01898887783833845</v>
       </c>
       <c r="C2">
-        <v>-0.1114526860039298</v>
+        <v>-0.07345334975072877</v>
       </c>
       <c r="D2">
-        <v>0.005544583392005768</v>
+        <v>-0.02935790251857207</v>
       </c>
       <c r="E2">
-        <v>0.2395184406166646</v>
+        <v>-0.09880168794404504</v>
       </c>
       <c r="F2">
-        <v>0.06549576409547757</v>
+        <v>-0.1254933294793516</v>
       </c>
       <c r="G2">
-        <v>-0.05188605637209811</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>-0.003233703349803745</v>
+      </c>
+      <c r="H2">
+        <v>0.06068865974306941</v>
+      </c>
+      <c r="I2">
+        <v>-0.0182993402088507</v>
+      </c>
+      <c r="J2">
+        <v>0.006829394986961813</v>
+      </c>
+      <c r="K2">
+        <v>0.206898806245168</v>
+      </c>
+      <c r="L2">
+        <v>-0.1507181569744468</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -769,33 +814,63 @@
       <c r="G3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B4">
-        <v>0.01711963703177816</v>
+        <v>0.01816983298921744</v>
       </c>
       <c r="C4">
-        <v>-0.1671938242690899</v>
+        <v>-0.14619960823178</v>
       </c>
       <c r="D4">
-        <v>-0.01230770291008029</v>
+        <v>-0.06108652829967676</v>
       </c>
       <c r="E4">
-        <v>0.07523985823209807</v>
+        <v>0.01121588404947838</v>
       </c>
       <c r="F4">
-        <v>-0.05561206902867902</v>
+        <v>-0.0722901557770394</v>
       </c>
       <c r="G4">
-        <v>-0.02483356884709089</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>0.008240040841356417</v>
+      </c>
+      <c r="H4">
+        <v>0.09567536213570844</v>
+      </c>
+      <c r="I4">
+        <v>-0.02774860417983359</v>
+      </c>
+      <c r="J4">
+        <v>0.1258741184176919</v>
+      </c>
+      <c r="K4">
+        <v>0.1487123081267462</v>
+      </c>
+      <c r="L4">
+        <v>-0.02711458185049227</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,263 +890,443 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B6">
-        <v>0.0281576346023687</v>
+        <v>0.03916755447769789</v>
       </c>
       <c r="C6">
-        <v>-0.08074518585465994</v>
+        <v>-0.08792972610586974</v>
       </c>
       <c r="D6">
-        <v>-0.05304013508556023</v>
+        <v>-0.02943491534590535</v>
       </c>
       <c r="E6">
-        <v>0.06683234887668831</v>
+        <v>-0.04569086957657816</v>
       </c>
       <c r="F6">
-        <v>-0.00708623601664351</v>
+        <v>-0.01809452206342768</v>
       </c>
       <c r="G6">
-        <v>0.01247318166457172</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>0.04190347513107295</v>
+      </c>
+      <c r="H6">
+        <v>0.0360711367297773</v>
+      </c>
+      <c r="I6">
+        <v>0.07093071288473471</v>
+      </c>
+      <c r="J6">
+        <v>-0.06170205085058252</v>
+      </c>
+      <c r="K6">
+        <v>0.08146469498967886</v>
+      </c>
+      <c r="L6">
+        <v>0.03526869441340777</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B7">
-        <v>0.002838733895889889</v>
+        <v>0.01808551141159068</v>
       </c>
       <c r="C7">
-        <v>-0.06711119421632306</v>
+        <v>-0.0751363493525715</v>
       </c>
       <c r="D7">
-        <v>-0.02992797231558758</v>
+        <v>-0.02705678492759398</v>
       </c>
       <c r="E7">
-        <v>0.03240023029455926</v>
+        <v>0.01755262945200772</v>
       </c>
       <c r="F7">
-        <v>-0.04592904688122258</v>
+        <v>-0.002670447424134187</v>
       </c>
       <c r="G7">
-        <v>0.008634972982315114</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>0.03898799335110135</v>
+      </c>
+      <c r="H7">
+        <v>0.100616076204198</v>
+      </c>
+      <c r="I7">
+        <v>0.007305346999780069</v>
+      </c>
+      <c r="J7">
+        <v>0.02149501019845628</v>
+      </c>
+      <c r="K7">
+        <v>0.04359618944607806</v>
+      </c>
+      <c r="L7">
+        <v>-0.02607360376884796</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B8">
-        <v>-0.008572313602017018</v>
+        <v>-0.0005842702045150842</v>
       </c>
       <c r="C8">
-        <v>-0.07171796357944499</v>
+        <v>-0.06122332329045617</v>
       </c>
       <c r="D8">
-        <v>-0.02698175373319368</v>
+        <v>-0.04207074820316518</v>
       </c>
       <c r="E8">
-        <v>0.09202879450619496</v>
+        <v>-0.02166462229837111</v>
       </c>
       <c r="F8">
-        <v>-0.02823377101469783</v>
+        <v>-0.05662548841079129</v>
       </c>
       <c r="G8">
-        <v>-0.0305111199404189</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>-0.01357206890845618</v>
+      </c>
+      <c r="H8">
+        <v>0.05762095151280665</v>
+      </c>
+      <c r="I8">
+        <v>0.001034526554509829</v>
+      </c>
+      <c r="J8">
+        <v>0.007530720558010854</v>
+      </c>
+      <c r="K8">
+        <v>0.004000121717673348</v>
+      </c>
+      <c r="L8">
+        <v>-0.003754448985564125</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B9">
-        <v>0.009957632268136117</v>
+        <v>0.01351638447880049</v>
       </c>
       <c r="C9">
-        <v>-0.1267194980601434</v>
+        <v>-0.105120579635775</v>
       </c>
       <c r="D9">
-        <v>-0.03331623879347329</v>
+        <v>-0.04283076177045343</v>
       </c>
       <c r="E9">
-        <v>0.03309835257676405</v>
+        <v>-0.001404413999220375</v>
       </c>
       <c r="F9">
-        <v>-0.02797843228757904</v>
+        <v>-0.03013272075214717</v>
       </c>
       <c r="G9">
-        <v>0.0284065943134285</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>-0.001340341465155159</v>
+      </c>
+      <c r="H9">
+        <v>0.09127005958938629</v>
+      </c>
+      <c r="I9">
+        <v>0.009625149071984035</v>
+      </c>
+      <c r="J9">
+        <v>0.08097985182949211</v>
+      </c>
+      <c r="K9">
+        <v>0.06608925454550796</v>
+      </c>
+      <c r="L9">
+        <v>0.006543857606283076</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B10">
-        <v>0.2729786577540888</v>
+        <v>0.2469450246217101</v>
       </c>
       <c r="C10">
-        <v>0.08558167509823733</v>
+        <v>0.09295242672184265</v>
       </c>
       <c r="D10">
-        <v>0.01781778918951611</v>
+        <v>0.002292470932420421</v>
       </c>
       <c r="E10">
-        <v>-0.03810181395369397</v>
+        <v>-0.01143805743513256</v>
       </c>
       <c r="F10">
-        <v>-0.008351074721695393</v>
+        <v>0.0163393368803286</v>
       </c>
       <c r="G10">
-        <v>0.01922123383101894</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>0.0130761059512368</v>
+      </c>
+      <c r="H10">
+        <v>0.03578964935718154</v>
+      </c>
+      <c r="I10">
+        <v>-0.1581811837480585</v>
+      </c>
+      <c r="J10">
+        <v>0.09576436377572152</v>
+      </c>
+      <c r="K10">
+        <v>-0.1094130961341481</v>
+      </c>
+      <c r="L10">
+        <v>-0.006649872725696359</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B11">
-        <v>0.00766413224129988</v>
+        <v>0.01659538847911488</v>
       </c>
       <c r="C11">
-        <v>-0.07222611309361704</v>
+        <v>-0.08469044916468181</v>
       </c>
       <c r="D11">
-        <v>-0.02460363405123378</v>
+        <v>-0.03721696810436755</v>
       </c>
       <c r="E11">
-        <v>-0.01538044815674456</v>
+        <v>0.01008187791974472</v>
       </c>
       <c r="F11">
-        <v>-0.02467077546318257</v>
+        <v>0.01288812754614974</v>
       </c>
       <c r="G11">
-        <v>0.04028232025345308</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>0.007849444967595586</v>
+      </c>
+      <c r="H11">
+        <v>0.03096281864479247</v>
+      </c>
+      <c r="I11">
+        <v>0.02496263118739772</v>
+      </c>
+      <c r="J11">
+        <v>0.009035419868938029</v>
+      </c>
+      <c r="K11">
+        <v>-0.02162958531459685</v>
+      </c>
+      <c r="L11">
+        <v>0.05907209722957986</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B12">
-        <v>0.007212782704070743</v>
+        <v>0.01675499282083829</v>
       </c>
       <c r="C12">
-        <v>-0.05801501584970067</v>
+        <v>-0.06002536994024846</v>
       </c>
       <c r="D12">
-        <v>-0.02943918156914895</v>
+        <v>-0.02195128208735236</v>
       </c>
       <c r="E12">
-        <v>-0.01186106833177968</v>
+        <v>-0.01270020265185986</v>
       </c>
       <c r="F12">
-        <v>0.001237829092884433</v>
+        <v>0.02078018178547491</v>
       </c>
       <c r="G12">
-        <v>0.0702801798589012</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>0.02561719755802535</v>
+      </c>
+      <c r="H12">
+        <v>0.02987198090033745</v>
+      </c>
+      <c r="I12">
+        <v>0.01929343239818755</v>
+      </c>
+      <c r="J12">
+        <v>0.01145738074923</v>
+      </c>
+      <c r="K12">
+        <v>-0.01013961905988533</v>
+      </c>
+      <c r="L12">
+        <v>0.05475652820194019</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B13">
-        <v>0.01651315892900609</v>
+        <v>0.006363534629284896</v>
       </c>
       <c r="C13">
-        <v>-0.1324764818284657</v>
+        <v>-0.1227816061138482</v>
       </c>
       <c r="D13">
-        <v>-0.04936423919654093</v>
+        <v>-0.04036616656485393</v>
       </c>
       <c r="E13">
-        <v>0.05933693313886716</v>
+        <v>-0.1533438069075838</v>
       </c>
       <c r="F13">
-        <v>-0.01852978784931863</v>
+        <v>-0.05675159699289426</v>
       </c>
       <c r="G13">
-        <v>0.1808760027794353</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>0.1154568250980616</v>
+      </c>
+      <c r="H13">
+        <v>0.1362622588751486</v>
+      </c>
+      <c r="I13">
+        <v>-0.197163237046037</v>
+      </c>
+      <c r="J13">
+        <v>-0.1383442838424034</v>
+      </c>
+      <c r="K13">
+        <v>-0.1943784675265765</v>
+      </c>
+      <c r="L13">
+        <v>-0.01429025935111238</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B14">
-        <v>0.008476260608376023</v>
+        <v>0.01911396074471648</v>
       </c>
       <c r="C14">
-        <v>-0.07099608506849908</v>
+        <v>-0.07650616279305157</v>
       </c>
       <c r="D14">
-        <v>-0.02744790311100909</v>
+        <v>-0.0492441659757417</v>
       </c>
       <c r="E14">
-        <v>0.03715922133547763</v>
+        <v>-0.04483243856695527</v>
       </c>
       <c r="F14">
-        <v>0.005852961150208484</v>
+        <v>0.02065545346210652</v>
       </c>
       <c r="G14">
-        <v>0.06615338738413173</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>0.06972356714170297</v>
+      </c>
+      <c r="H14">
+        <v>0.2111800866181082</v>
+      </c>
+      <c r="I14">
+        <v>0.04449289449901185</v>
+      </c>
+      <c r="J14">
+        <v>-0.04146162010227031</v>
+      </c>
+      <c r="K14">
+        <v>-0.09990267984279054</v>
+      </c>
+      <c r="L14">
+        <v>-0.1550586500587571</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B15">
-        <v>0.008090417445086744</v>
+        <v>0.002689796453378951</v>
       </c>
       <c r="C15">
-        <v>-0.09984123348787918</v>
+        <v>-0.0812376616455564</v>
       </c>
       <c r="D15">
-        <v>-0.03818249056942637</v>
+        <v>-0.03469583242456424</v>
       </c>
       <c r="E15">
-        <v>0.06447969364715907</v>
+        <v>-0.006712041164852615</v>
       </c>
       <c r="F15">
-        <v>-0.03172001358175767</v>
+        <v>-0.02204281833994887</v>
       </c>
       <c r="G15">
-        <v>0.03262730413956687</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>0.0291179706951712</v>
+      </c>
+      <c r="H15">
+        <v>0.0921813850576171</v>
+      </c>
+      <c r="I15">
+        <v>0.03026836714337899</v>
+      </c>
+      <c r="J15">
+        <v>0.007853074286658716</v>
+      </c>
+      <c r="K15">
+        <v>-0.05347641221922254</v>
+      </c>
+      <c r="L15">
+        <v>-0.03030282846804769</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B16">
-        <v>0.01057564316754004</v>
+        <v>0.01555416103268387</v>
       </c>
       <c r="C16">
-        <v>-0.06482584481612759</v>
+        <v>-0.06447247335166427</v>
       </c>
       <c r="D16">
-        <v>-0.0168007187207522</v>
+        <v>-0.02584490178725804</v>
       </c>
       <c r="E16">
-        <v>-0.01138718121270307</v>
+        <v>0.004508460788011567</v>
       </c>
       <c r="F16">
-        <v>-0.002922110922270063</v>
+        <v>0.009937070207379084</v>
       </c>
       <c r="G16">
-        <v>0.0333606727881705</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>0.006818032882298044</v>
+      </c>
+      <c r="H16">
+        <v>0.02394549668357707</v>
+      </c>
+      <c r="I16">
+        <v>0.02015253040761314</v>
+      </c>
+      <c r="J16">
+        <v>0.009550464872330114</v>
+      </c>
+      <c r="K16">
+        <v>-0.005155245611244972</v>
+      </c>
+      <c r="L16">
+        <v>0.04171985005027942</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1346,25 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,10 +1384,25 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1137,171 +1422,291 @@
       <c r="G19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B20">
-        <v>0.01419523196792757</v>
+        <v>0.01440294816331518</v>
       </c>
       <c r="C20">
-        <v>-0.08967079517900406</v>
+        <v>-0.0861282945277996</v>
       </c>
       <c r="D20">
-        <v>-0.01660413361759601</v>
+        <v>-0.02488301599149417</v>
       </c>
       <c r="E20">
-        <v>-0.00483765249442313</v>
+        <v>0.02817996052289964</v>
       </c>
       <c r="F20">
-        <v>-0.06255467189375803</v>
+        <v>0.002182539531276304</v>
       </c>
       <c r="G20">
-        <v>0.08015946946503417</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>0.03710700984177469</v>
+      </c>
+      <c r="H20">
+        <v>0.07142815959447762</v>
+      </c>
+      <c r="I20">
+        <v>0.01684993365374887</v>
+      </c>
+      <c r="J20">
+        <v>0.01654513262271538</v>
+      </c>
+      <c r="K20">
+        <v>0.01166532097094902</v>
+      </c>
+      <c r="L20">
+        <v>0.009005252790677393</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B21">
-        <v>4.677547773378557e-05</v>
+        <v>0.01409070312460759</v>
       </c>
       <c r="C21">
-        <v>-0.09262193541621537</v>
+        <v>-0.07388439324491028</v>
       </c>
       <c r="D21">
-        <v>0.02841122115757199</v>
+        <v>-0.02228112726717247</v>
       </c>
       <c r="E21">
-        <v>0.04706440656953735</v>
+        <v>-0.08780167175592833</v>
       </c>
       <c r="F21">
-        <v>0.04716334077948305</v>
+        <v>0.02048140948520507</v>
       </c>
       <c r="G21">
-        <v>0.06010649844297911</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>0.01310498333644987</v>
+      </c>
+      <c r="H21">
+        <v>0.142000298660875</v>
+      </c>
+      <c r="I21">
+        <v>-0.02420118298404473</v>
+      </c>
+      <c r="J21">
+        <v>-0.01495406726706993</v>
+      </c>
+      <c r="K21">
+        <v>-0.04846744154648342</v>
+      </c>
+      <c r="L21">
+        <v>0.01505709755677477</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B22">
-        <v>0.04284993879501058</v>
+        <v>0.006837948116963127</v>
       </c>
       <c r="C22">
-        <v>-0.1940300351291848</v>
+        <v>-0.1740549214788908</v>
       </c>
       <c r="D22">
-        <v>0.09305941292291182</v>
+        <v>-0.01420467565110836</v>
       </c>
       <c r="E22">
-        <v>0.2958023178181798</v>
+        <v>-0.0759300450436884</v>
       </c>
       <c r="F22">
-        <v>-0.1405716315094243</v>
+        <v>-0.5324979285237059</v>
       </c>
       <c r="G22">
-        <v>-0.2080874078385123</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+        <v>0.003152542326023636</v>
+      </c>
+      <c r="H22">
+        <v>-0.2868197630514904</v>
+      </c>
+      <c r="I22">
+        <v>-0.001998793440310058</v>
+      </c>
+      <c r="J22">
+        <v>-0.02290808306269953</v>
+      </c>
+      <c r="K22">
+        <v>-0.2165956568234743</v>
+      </c>
+      <c r="L22">
+        <v>0.03872600397704966</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B23">
-        <v>0.04243032050260642</v>
+        <v>0.01190576020075032</v>
       </c>
       <c r="C23">
-        <v>-0.1945929099369393</v>
+        <v>-0.1779420156797513</v>
       </c>
       <c r="D23">
-        <v>0.09296789019251175</v>
+        <v>-0.01339208335602049</v>
       </c>
       <c r="E23">
-        <v>0.2916715017302813</v>
+        <v>-0.07388612592334073</v>
       </c>
       <c r="F23">
-        <v>-0.1386754408528831</v>
+        <v>-0.514049063878898</v>
       </c>
       <c r="G23">
-        <v>-0.2076054958262555</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+        <v>0.00531128215214313</v>
+      </c>
+      <c r="H23">
+        <v>-0.2658407908707571</v>
+      </c>
+      <c r="I23">
+        <v>0.004262103391639373</v>
+      </c>
+      <c r="J23">
+        <v>-0.01605911926861643</v>
+      </c>
+      <c r="K23">
+        <v>-0.2034187847083023</v>
+      </c>
+      <c r="L23">
+        <v>0.04292078123874018</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B24">
-        <v>0.004648487988872371</v>
+        <v>0.01686744611505109</v>
       </c>
       <c r="C24">
-        <v>-0.0693421746090187</v>
+        <v>-0.07054730924841314</v>
       </c>
       <c r="D24">
-        <v>-0.03966901774383193</v>
+        <v>-0.0388917590861189</v>
       </c>
       <c r="E24">
-        <v>-0.01138545701882414</v>
+        <v>0.008334422547377625</v>
       </c>
       <c r="F24">
-        <v>-0.01790351550499789</v>
+        <v>0.0102924317345032</v>
       </c>
       <c r="G24">
-        <v>0.05411383071036537</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>0.02104550147471328</v>
+      </c>
+      <c r="H24">
+        <v>0.0424124049667187</v>
+      </c>
+      <c r="I24">
+        <v>0.02149379443658191</v>
+      </c>
+      <c r="J24">
+        <v>0.01557711448744428</v>
+      </c>
+      <c r="K24">
+        <v>-0.01462468899233793</v>
+      </c>
+      <c r="L24">
+        <v>0.04766621223190291</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B25">
-        <v>0.007698897630031571</v>
+        <v>0.02075428716794854</v>
       </c>
       <c r="C25">
-        <v>-0.06805369309019539</v>
+        <v>-0.07069998171273061</v>
       </c>
       <c r="D25">
-        <v>-0.01475640911599284</v>
+        <v>-0.02769871293854757</v>
       </c>
       <c r="E25">
-        <v>-0.01576430341961709</v>
+        <v>0.009067483594846999</v>
       </c>
       <c r="F25">
-        <v>-0.02090987416435111</v>
+        <v>0.006481240205373503</v>
       </c>
       <c r="G25">
-        <v>0.05139066542100614</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>0.01791104258405302</v>
+      </c>
+      <c r="H25">
+        <v>0.03708579201326254</v>
+      </c>
+      <c r="I25">
+        <v>0.01078701105563153</v>
+      </c>
+      <c r="J25">
+        <v>0.01666038054297447</v>
+      </c>
+      <c r="K25">
+        <v>-0.02560472395850127</v>
+      </c>
+      <c r="L25">
+        <v>0.03421665338567369</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B26">
-        <v>0.006824221442220758</v>
+        <v>0.0248932117799997</v>
       </c>
       <c r="C26">
-        <v>-0.0651381050898644</v>
+        <v>-0.06137752700450411</v>
       </c>
       <c r="D26">
-        <v>-0.05474476882167172</v>
+        <v>-0.06324930572852068</v>
       </c>
       <c r="E26">
-        <v>0.01256402725476536</v>
+        <v>0.008331719288430369</v>
       </c>
       <c r="F26">
-        <v>0.01034774398223534</v>
+        <v>0.01867329616053866</v>
       </c>
       <c r="G26">
-        <v>0.04427302203915193</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>-0.007281142693843972</v>
+      </c>
+      <c r="H26">
+        <v>0.09970174238601837</v>
+      </c>
+      <c r="I26">
+        <v>0.0476619602367274</v>
+      </c>
+      <c r="J26">
+        <v>0.07804806436076211</v>
+      </c>
+      <c r="K26">
+        <v>0.09946545780133452</v>
+      </c>
+      <c r="L26">
+        <v>0.05446085514312868</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1321,217 +1726,367 @@
       <c r="G27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B28">
-        <v>0.3722756807199815</v>
+        <v>0.3169591657917825</v>
       </c>
       <c r="C28">
-        <v>0.1037551684560203</v>
+        <v>0.1071949092991137</v>
       </c>
       <c r="D28">
-        <v>0.02719879621414294</v>
+        <v>0.03330110212085166</v>
       </c>
       <c r="E28">
-        <v>-0.09396095105525211</v>
+        <v>-0.03230497541780895</v>
       </c>
       <c r="F28">
-        <v>0.0769618405819822</v>
+        <v>-0.03100545984881018</v>
       </c>
       <c r="G28">
-        <v>-0.002169821177748558</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>-0.1264611086502012</v>
+      </c>
+      <c r="H28">
+        <v>0.05767309507376334</v>
+      </c>
+      <c r="I28">
+        <v>-0.2104276135230195</v>
+      </c>
+      <c r="J28">
+        <v>0.004054162712507986</v>
+      </c>
+      <c r="K28">
+        <v>0.007069100119055882</v>
+      </c>
+      <c r="L28">
+        <v>0.02304683331979163</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B29">
-        <v>0.007681198913699337</v>
+        <v>0.01356394992975276</v>
       </c>
       <c r="C29">
-        <v>-0.07482750430285552</v>
+        <v>-0.08149714951846357</v>
       </c>
       <c r="D29">
-        <v>-0.04149749265184431</v>
+        <v>-0.05409398926338044</v>
       </c>
       <c r="E29">
-        <v>0.03616024844463645</v>
+        <v>-0.05532599417401029</v>
       </c>
       <c r="F29">
-        <v>-0.01128732856798693</v>
+        <v>0.01667031873796364</v>
       </c>
       <c r="G29">
-        <v>0.09625211101131725</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>0.1085172722327702</v>
+      </c>
+      <c r="H29">
+        <v>0.2999095193959751</v>
+      </c>
+      <c r="I29">
+        <v>0.03938043885151627</v>
+      </c>
+      <c r="J29">
+        <v>-0.05913309629805034</v>
+      </c>
+      <c r="K29">
+        <v>-0.1537280538321419</v>
+      </c>
+      <c r="L29">
+        <v>-0.2930875644987823</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B30">
-        <v>0.03623716351914878</v>
+        <v>0.03134744629296556</v>
       </c>
       <c r="C30">
-        <v>-0.1741411266633499</v>
+        <v>-0.143288061987865</v>
       </c>
       <c r="D30">
-        <v>-0.05197651414063633</v>
+        <v>-0.05475625963039747</v>
       </c>
       <c r="E30">
-        <v>0.05000657404217518</v>
+        <v>-0.007338432809725814</v>
       </c>
       <c r="F30">
-        <v>-0.05073965415122297</v>
+        <v>-0.06613221266812191</v>
       </c>
       <c r="G30">
-        <v>-0.006913973170437322</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>0.01126029181765388</v>
+      </c>
+      <c r="H30">
+        <v>0.02862777729398523</v>
+      </c>
+      <c r="I30">
+        <v>0.03842035305359015</v>
+      </c>
+      <c r="J30">
+        <v>0.02189287964020801</v>
+      </c>
+      <c r="K30">
+        <v>0.090526281618947</v>
+      </c>
+      <c r="L30">
+        <v>0.02665787647099913</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B31">
-        <v>-0.003704336511663447</v>
+        <v>0.01345288491825503</v>
       </c>
       <c r="C31">
-        <v>-0.066452100599773</v>
+        <v>-0.08273358375737687</v>
       </c>
       <c r="D31">
-        <v>-0.03758150449421619</v>
+        <v>-0.04081573007738694</v>
       </c>
       <c r="E31">
-        <v>-0.01479874118302846</v>
+        <v>-0.0004657330616789194</v>
       </c>
       <c r="F31">
-        <v>0.009100087349708866</v>
+        <v>0.003101029047584318</v>
       </c>
       <c r="G31">
-        <v>0.01632241011571602</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>-0.02992123210483302</v>
+      </c>
+      <c r="H31">
+        <v>0.03448943252437368</v>
+      </c>
+      <c r="I31">
+        <v>0.01805334154614034</v>
+      </c>
+      <c r="J31">
+        <v>0.01068025261153187</v>
+      </c>
+      <c r="K31">
+        <v>-0.04110973693952324</v>
+      </c>
+      <c r="L31">
+        <v>0.04300318844796261</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B32">
-        <v>0.02086514959473704</v>
+        <v>0.02207238392251652</v>
       </c>
       <c r="C32">
-        <v>-0.08295260630958624</v>
+        <v>-0.05616042262900903</v>
       </c>
       <c r="D32">
-        <v>0.01005389876855546</v>
+        <v>-0.01762684831099254</v>
       </c>
       <c r="E32">
-        <v>0.1615716751653385</v>
+        <v>-0.09637365561764104</v>
       </c>
       <c r="F32">
-        <v>-0.00991984417344032</v>
+        <v>-0.0672163407460775</v>
       </c>
       <c r="G32">
-        <v>0.05928655391467037</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>0.06320699669697452</v>
+      </c>
+      <c r="H32">
+        <v>0.1755239155077813</v>
+      </c>
+      <c r="I32">
+        <v>-0.2535844721098944</v>
+      </c>
+      <c r="J32">
+        <v>-0.09693232803629961</v>
+      </c>
+      <c r="K32">
+        <v>-0.01836485828746284</v>
+      </c>
+      <c r="L32">
+        <v>-0.1379778277957965</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B33">
-        <v>0.0167842250792641</v>
+        <v>0.01779605153546772</v>
       </c>
       <c r="C33">
-        <v>-0.09763542037717274</v>
+        <v>-0.1075938183539111</v>
       </c>
       <c r="D33">
-        <v>-0.05906106106475687</v>
+        <v>-0.04713669920333251</v>
       </c>
       <c r="E33">
-        <v>0.01383242023243425</v>
+        <v>0.004240759045907198</v>
       </c>
       <c r="F33">
-        <v>-0.006572625810874999</v>
+        <v>-0.01404295862685898</v>
       </c>
       <c r="G33">
-        <v>0.03303496547261264</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>0.02225796502613</v>
+      </c>
+      <c r="H33">
+        <v>0.05898410713123742</v>
+      </c>
+      <c r="I33">
+        <v>-0.0124610156041014</v>
+      </c>
+      <c r="J33">
+        <v>0.02917665907854276</v>
+      </c>
+      <c r="K33">
+        <v>-0.01034275528384732</v>
+      </c>
+      <c r="L33">
+        <v>0.02254859097076719</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B34">
-        <v>0.003992074139789657</v>
+        <v>0.01641486933746227</v>
       </c>
       <c r="C34">
-        <v>-0.05529266799557878</v>
+        <v>-0.05214858060658417</v>
       </c>
       <c r="D34">
-        <v>-0.0205842640145159</v>
+        <v>-0.01996043376904427</v>
       </c>
       <c r="E34">
-        <v>0.0005168514645286175</v>
+        <v>-0.0009019089857871501</v>
       </c>
       <c r="F34">
-        <v>0.005780200798172232</v>
+        <v>0.0121094890848705</v>
       </c>
       <c r="G34">
-        <v>0.04119595461337793</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>0.01552900555130638</v>
+      </c>
+      <c r="H34">
+        <v>0.00808531564850435</v>
+      </c>
+      <c r="I34">
+        <v>0.01701505006113097</v>
+      </c>
+      <c r="J34">
+        <v>0.01826425258262395</v>
+      </c>
+      <c r="K34">
+        <v>-0.01169050094273207</v>
+      </c>
+      <c r="L34">
+        <v>0.042107412906816</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B35">
-        <v>0.00325254358900897</v>
+        <v>0.00979116336749088</v>
       </c>
       <c r="C35">
-        <v>-0.02070885429744039</v>
+        <v>-0.0415971596250323</v>
       </c>
       <c r="D35">
-        <v>-0.006563200156144922</v>
+        <v>-0.02109007974246</v>
       </c>
       <c r="E35">
-        <v>0.01120414136527447</v>
+        <v>-0.01577096080964838</v>
       </c>
       <c r="F35">
-        <v>-0.009585601007288298</v>
+        <v>0.0009018258123824628</v>
       </c>
       <c r="G35">
-        <v>0.02678363000961731</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
+        <v>0.04284710737884009</v>
+      </c>
+      <c r="H35">
+        <v>0.1537903627195659</v>
+      </c>
+      <c r="I35">
+        <v>0.01198243143534441</v>
+      </c>
+      <c r="J35">
+        <v>-0.002501525268321855</v>
+      </c>
+      <c r="K35">
+        <v>-0.1375162761692328</v>
+      </c>
+      <c r="L35">
+        <v>-0.1581898142497462</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B36">
-        <v>0.005772583256827922</v>
+        <v>0.01582928426207831</v>
       </c>
       <c r="C36">
-        <v>-0.05486323823757404</v>
+        <v>-0.05064945958765394</v>
       </c>
       <c r="D36">
-        <v>-0.04712928551509205</v>
+        <v>-0.04811593238292206</v>
       </c>
       <c r="E36">
-        <v>0.005759530962355381</v>
+        <v>-0.003496071970788655</v>
       </c>
       <c r="F36">
-        <v>0.002336809828798182</v>
+        <v>0.001165209821088245</v>
       </c>
       <c r="G36">
-        <v>0.02227327382352854</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>-0.004839759808361626</v>
+      </c>
+      <c r="H36">
+        <v>0.0721946483915241</v>
+      </c>
+      <c r="I36">
+        <v>0.01644479132473735</v>
+      </c>
+      <c r="J36">
+        <v>0.02865765965376239</v>
+      </c>
+      <c r="K36">
+        <v>0.03380647389232613</v>
+      </c>
+      <c r="L36">
+        <v>0.05805966391693735</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,102 +2106,177 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B38">
-        <v>0.03123085993563149</v>
+        <v>0.01308683842725263</v>
       </c>
       <c r="C38">
-        <v>-0.05985823495850606</v>
+        <v>-0.06434089841635851</v>
       </c>
       <c r="D38">
-        <v>-0.04319146038238908</v>
+        <v>-0.04151538873779689</v>
       </c>
       <c r="E38">
-        <v>-0.002313524627077638</v>
+        <v>0.02717871500152387</v>
       </c>
       <c r="F38">
-        <v>-0.01386714673948554</v>
+        <v>-0.01827380930176165</v>
       </c>
       <c r="G38">
-        <v>0.007488082695686808</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>-0.008950043024705041</v>
+      </c>
+      <c r="H38">
+        <v>0.08664423588871129</v>
+      </c>
+      <c r="I38">
+        <v>-0.05995406986444115</v>
+      </c>
+      <c r="J38">
+        <v>0.0006625318302742463</v>
+      </c>
+      <c r="K38">
+        <v>-0.04886838239321626</v>
+      </c>
+      <c r="L38">
+        <v>0.1154684274459205</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B39">
-        <v>0.002778295138464798</v>
+        <v>0.01714657902747593</v>
       </c>
       <c r="C39">
-        <v>-0.1338134980121764</v>
+        <v>-0.1282945425246979</v>
       </c>
       <c r="D39">
-        <v>-0.03639575601814831</v>
+        <v>-0.05370535879974215</v>
       </c>
       <c r="E39">
-        <v>0.01663076766387117</v>
+        <v>-0.003227127699491914</v>
       </c>
       <c r="F39">
-        <v>-0.03781319645359893</v>
+        <v>0.0001162828130573785</v>
       </c>
       <c r="G39">
-        <v>0.07037634805076662</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>0.03881091588637673</v>
+      </c>
+      <c r="H39">
+        <v>0.05025198622399055</v>
+      </c>
+      <c r="I39">
+        <v>0.06933197144625046</v>
+      </c>
+      <c r="J39">
+        <v>-0.011963605875361</v>
+      </c>
+      <c r="K39">
+        <v>0.02314516957888355</v>
+      </c>
+      <c r="L39">
+        <v>0.07934694880730284</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B40">
-        <v>0.008999774267178354</v>
+        <v>0.01378499536143664</v>
       </c>
       <c r="C40">
-        <v>-0.02939979564976314</v>
+        <v>-0.06009960673282212</v>
       </c>
       <c r="D40">
-        <v>-0.03191113370678188</v>
+        <v>-0.0368197760924555</v>
       </c>
       <c r="E40">
-        <v>0.1263036931588946</v>
+        <v>-0.03947024050644948</v>
       </c>
       <c r="F40">
-        <v>-0.04339694424611045</v>
+        <v>-0.02966530932650319</v>
       </c>
       <c r="G40">
-        <v>0.07636802912977268</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>0.145246917057045</v>
+      </c>
+      <c r="H40">
+        <v>0.0417273740933071</v>
+      </c>
+      <c r="I40">
+        <v>0.003550865362129376</v>
+      </c>
+      <c r="J40">
+        <v>0.04322799800278568</v>
+      </c>
+      <c r="K40">
+        <v>-0.272810734709097</v>
+      </c>
+      <c r="L40">
+        <v>0.01750405729306076</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B41">
-        <v>0.008839315207876895</v>
+        <v>0.02121745129501729</v>
       </c>
       <c r="C41">
-        <v>-0.02043236295925449</v>
+        <v>-0.0470596649411839</v>
       </c>
       <c r="D41">
-        <v>-0.006555816175714209</v>
+        <v>-0.01654150976354334</v>
       </c>
       <c r="E41">
-        <v>-0.02338294801669275</v>
+        <v>0.01105676459877577</v>
       </c>
       <c r="F41">
-        <v>0.03135220323604887</v>
+        <v>0.02506943555975632</v>
       </c>
       <c r="G41">
-        <v>-0.03099036968412718</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>-0.01150385209586068</v>
+      </c>
+      <c r="H41">
+        <v>0.02454822144517742</v>
+      </c>
+      <c r="I41">
+        <v>-0.02600880594276715</v>
+      </c>
+      <c r="J41">
+        <v>-0.00175110486588949</v>
+      </c>
+      <c r="K41">
+        <v>-0.05801655648874155</v>
+      </c>
+      <c r="L41">
+        <v>0.01555348494467168</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1666,56 +2296,101 @@
       <c r="G42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:7">
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B43">
-        <v>0.002362333219867844</v>
+        <v>0.01824758993785131</v>
       </c>
       <c r="C43">
-        <v>-0.02065277737337287</v>
+        <v>-0.04440562804176659</v>
       </c>
       <c r="D43">
-        <v>-0.01131874326079767</v>
+        <v>-0.02918834854127244</v>
       </c>
       <c r="E43">
-        <v>-0.01113832850710834</v>
+        <v>0.0151237809104798</v>
       </c>
       <c r="F43">
-        <v>0.000823013503308161</v>
+        <v>0.008645347555685263</v>
       </c>
       <c r="G43">
-        <v>-0.003909674563682798</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>-0.004491972708314632</v>
+      </c>
+      <c r="H43">
+        <v>0.04295003293741019</v>
+      </c>
+      <c r="I43">
+        <v>0.0008855276747506901</v>
+      </c>
+      <c r="J43">
+        <v>-0.01282636192952233</v>
+      </c>
+      <c r="K43">
+        <v>-0.04430682414605509</v>
+      </c>
+      <c r="L43">
+        <v>0.01650121568538233</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B44">
-        <v>0.02699099474773983</v>
+        <v>0.01442593324596173</v>
       </c>
       <c r="C44">
-        <v>-0.0987494618718484</v>
+        <v>-0.09836444581437102</v>
       </c>
       <c r="D44">
-        <v>-0.02083736733045757</v>
+        <v>-0.05693105447458562</v>
       </c>
       <c r="E44">
-        <v>0.04861757845592681</v>
+        <v>0.003104656392595908</v>
       </c>
       <c r="F44">
-        <v>-0.05777095636043902</v>
+        <v>-0.06367856718331685</v>
       </c>
       <c r="G44">
-        <v>0.02103040823273659</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>0.03909444215168233</v>
+      </c>
+      <c r="H44">
+        <v>0.05339743663744309</v>
+      </c>
+      <c r="I44">
+        <v>0.05177959198555107</v>
+      </c>
+      <c r="J44">
+        <v>-0.007221394855585552</v>
+      </c>
+      <c r="K44">
+        <v>0.08119990649897507</v>
+      </c>
+      <c r="L44">
+        <v>-0.01210757410630254</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,148 +2410,253 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B46">
-        <v>-0.006604126414256099</v>
+        <v>0.004084649220949481</v>
       </c>
       <c r="C46">
-        <v>-0.07422078499912994</v>
+        <v>-0.06568310867331116</v>
       </c>
       <c r="D46">
-        <v>-0.04181206737233752</v>
+        <v>-0.03045912270603989</v>
       </c>
       <c r="E46">
-        <v>0.02741671092302907</v>
+        <v>-0.008196547492664998</v>
       </c>
       <c r="F46">
-        <v>-0.01362716679721426</v>
+        <v>0.01790421469905964</v>
       </c>
       <c r="G46">
-        <v>0.05904904316694966</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>0.03315049497645091</v>
+      </c>
+      <c r="H46">
+        <v>0.1053574472513198</v>
+      </c>
+      <c r="I46">
+        <v>0.01336037810727279</v>
+      </c>
+      <c r="J46">
+        <v>-0.02106803974597974</v>
+      </c>
+      <c r="K46">
+        <v>-0.07129134238901751</v>
+      </c>
+      <c r="L46">
+        <v>-0.04856096125723894</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B47">
-        <v>0.01080887174769013</v>
+        <v>0.02414307942019611</v>
       </c>
       <c r="C47">
-        <v>-0.08870364307857455</v>
+        <v>-0.0840288168276868</v>
       </c>
       <c r="D47">
-        <v>-0.04321304787949769</v>
+        <v>-0.04525557622899199</v>
       </c>
       <c r="E47">
-        <v>-0.02100982580104685</v>
+        <v>-0.00229559508379357</v>
       </c>
       <c r="F47">
-        <v>0.02671484902840141</v>
+        <v>0.02238046299356252</v>
       </c>
       <c r="G47">
-        <v>0.05587207601120546</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>0.004036665489901198</v>
+      </c>
+      <c r="H47">
+        <v>0.07091778750891738</v>
+      </c>
+      <c r="I47">
+        <v>-0.02335027858614129</v>
+      </c>
+      <c r="J47">
+        <v>0.0005697643469435008</v>
+      </c>
+      <c r="K47">
+        <v>-0.04298412951554046</v>
+      </c>
+      <c r="L47">
+        <v>0.04564095988746367</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B48">
-        <v>0.01227133396990477</v>
+        <v>0.02176180992354537</v>
       </c>
       <c r="C48">
-        <v>-0.05716772471325988</v>
+        <v>-0.05312286038033293</v>
       </c>
       <c r="D48">
-        <v>-0.05644919348334278</v>
+        <v>-0.0545964581144894</v>
       </c>
       <c r="E48">
-        <v>0.002901590196837583</v>
+        <v>0.005472397760541309</v>
       </c>
       <c r="F48">
-        <v>-0.002178962516637499</v>
+        <v>0.006872687281850901</v>
       </c>
       <c r="G48">
-        <v>0.02558620504515166</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>-0.004868121225049079</v>
+      </c>
+      <c r="H48">
+        <v>0.09680841280392376</v>
+      </c>
+      <c r="I48">
+        <v>0.03150857887070561</v>
+      </c>
+      <c r="J48">
+        <v>0.05308532008849086</v>
+      </c>
+      <c r="K48">
+        <v>0.08006695122159653</v>
+      </c>
+      <c r="L48">
+        <v>0.065768894544566</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>0.007784019905924227</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>-0.02744235080194887</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>-0.0006135813701825102</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>0.02047620555447611</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <v>0.02958262958831553</v>
       </c>
       <c r="G49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
+        <v>0.03129308707833576</v>
+      </c>
+      <c r="H49">
+        <v>-0.02274817919133449</v>
+      </c>
+      <c r="I49">
+        <v>0.0508285539244054</v>
+      </c>
+      <c r="J49">
+        <v>0.03832676577189154</v>
+      </c>
+      <c r="K49">
+        <v>0.02970669467635327</v>
+      </c>
+      <c r="L49">
+        <v>0.001551086900011253</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B50">
-        <v>-0.001618068778765191</v>
+        <v>0.01394180892171601</v>
       </c>
       <c r="C50">
-        <v>-0.07649724534742393</v>
+        <v>-0.0806701826861394</v>
       </c>
       <c r="D50">
-        <v>-0.02926339063591118</v>
+        <v>-0.02881718340685578</v>
       </c>
       <c r="E50">
-        <v>0.001714370807280757</v>
+        <v>0.002295171234436043</v>
       </c>
       <c r="F50">
-        <v>-0.009852949858764755</v>
+        <v>-0.002239448913228338</v>
       </c>
       <c r="G50">
-        <v>0.006702859263888107</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>-0.01554965810716511</v>
+      </c>
+      <c r="H50">
+        <v>0.05855710002353424</v>
+      </c>
+      <c r="I50">
+        <v>-0.03934669942825961</v>
+      </c>
+      <c r="J50">
+        <v>0.008723217476670665</v>
+      </c>
+      <c r="K50">
+        <v>-0.03460170968293509</v>
+      </c>
+      <c r="L50">
+        <v>0.02890050681995732</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B51">
-        <v>0.002082489593503848</v>
+        <v>-0.006607156046320014</v>
       </c>
       <c r="C51">
-        <v>-0.07561563956321556</v>
+        <v>-0.03826535155864284</v>
       </c>
       <c r="D51">
-        <v>-0.0031681681269883</v>
+        <v>-0.02220941837302743</v>
       </c>
       <c r="E51">
-        <v>0.06956207600560943</v>
+        <v>-0.01608842241039378</v>
       </c>
       <c r="F51">
-        <v>-0.05116733273618496</v>
+        <v>-0.02414470590346142</v>
       </c>
       <c r="G51">
-        <v>0.01562011391327766</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>0.02609648671458349</v>
+      </c>
+      <c r="H51">
+        <v>0.09313278358917577</v>
+      </c>
+      <c r="I51">
+        <v>0.008200340061343075</v>
+      </c>
+      <c r="J51">
+        <v>0.03119670062365547</v>
+      </c>
+      <c r="K51">
+        <v>0.1120021653661817</v>
+      </c>
+      <c r="L51">
+        <v>-0.02184325303530297</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1896,102 +2676,177 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B53">
-        <v>0.04498378200625162</v>
+        <v>0.05828816210157548</v>
       </c>
       <c r="C53">
-        <v>-0.1358198951485407</v>
+        <v>-0.1323261933224651</v>
       </c>
       <c r="D53">
-        <v>-0.06319458971180679</v>
+        <v>-0.05535893399016473</v>
       </c>
       <c r="E53">
-        <v>-0.1303926922479687</v>
+        <v>0.01119909057704869</v>
       </c>
       <c r="F53">
-        <v>0.04633014248651881</v>
+        <v>0.06957090535546205</v>
       </c>
       <c r="G53">
-        <v>-0.02157329718530488</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>-0.08325771707519544</v>
+      </c>
+      <c r="H53">
+        <v>-0.03407635457751849</v>
+      </c>
+      <c r="I53">
+        <v>-0.04135410713250554</v>
+      </c>
+      <c r="J53">
+        <v>0.02275303032467788</v>
+      </c>
+      <c r="K53">
+        <v>-0.02581173273168306</v>
+      </c>
+      <c r="L53">
+        <v>0.104519481477821</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B54">
-        <v>0.004907150415155823</v>
+        <v>0.01867778754507902</v>
       </c>
       <c r="C54">
-        <v>-0.06832306628550833</v>
+        <v>-0.07668118279142043</v>
       </c>
       <c r="D54">
-        <v>-0.004318568304620608</v>
+        <v>-0.01065942785415793</v>
       </c>
       <c r="E54">
-        <v>-0.01975402983635877</v>
+        <v>-0.001452414840640574</v>
       </c>
       <c r="F54">
-        <v>-0.004469182051449406</v>
+        <v>0.02363125701563033</v>
       </c>
       <c r="G54">
-        <v>0.029883101018216</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>0.019163653650662</v>
+      </c>
+      <c r="H54">
+        <v>0.05479391010193825</v>
+      </c>
+      <c r="I54">
+        <v>0.03178246509500746</v>
+      </c>
+      <c r="J54">
+        <v>0.01058534413278833</v>
+      </c>
+      <c r="K54">
+        <v>-0.007455671279211194</v>
+      </c>
+      <c r="L54">
+        <v>-0.01167315809243701</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B55">
-        <v>0.02730358023303855</v>
+        <v>0.03386160701187117</v>
       </c>
       <c r="C55">
-        <v>-0.09860034431036396</v>
+        <v>-0.08948449083657267</v>
       </c>
       <c r="D55">
-        <v>-0.06566370774534436</v>
+        <v>-0.05389082751261402</v>
       </c>
       <c r="E55">
-        <v>-0.06184690045913512</v>
+        <v>0.01615366507287455</v>
       </c>
       <c r="F55">
-        <v>0.04186151845692841</v>
+        <v>0.05141455877428683</v>
       </c>
       <c r="G55">
-        <v>0.01042345511947457</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>-0.04363362603715347</v>
+      </c>
+      <c r="H55">
+        <v>-0.01949646412930078</v>
+      </c>
+      <c r="I55">
+        <v>0.01205063788520336</v>
+      </c>
+      <c r="J55">
+        <v>0.01616215699485506</v>
+      </c>
+      <c r="K55">
+        <v>-0.01259691735271145</v>
+      </c>
+      <c r="L55">
+        <v>0.05889277576704514</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B56">
-        <v>0.03067078393600042</v>
+        <v>0.04626664846558664</v>
       </c>
       <c r="C56">
-        <v>-0.1744823786407535</v>
+        <v>-0.154565328885174</v>
       </c>
       <c r="D56">
-        <v>-0.05715503865600471</v>
+        <v>-0.07758966669861694</v>
       </c>
       <c r="E56">
-        <v>-0.1233574694497656</v>
+        <v>-0.004591613996277904</v>
       </c>
       <c r="F56">
-        <v>0.09864572912271906</v>
+        <v>0.09648983405858962</v>
       </c>
       <c r="G56">
-        <v>-0.05284977435693894</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>-0.1553992004958085</v>
+      </c>
+      <c r="H56">
+        <v>-0.05326967831578871</v>
+      </c>
+      <c r="I56">
+        <v>-0.0204735359653031</v>
+      </c>
+      <c r="J56">
+        <v>0.03804782427730014</v>
+      </c>
+      <c r="K56">
+        <v>0.01723162320042379</v>
+      </c>
+      <c r="L56">
+        <v>0.05679210378992748</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2011,286 +2866,481 @@
       <c r="G57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:7">
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B58">
-        <v>0.03684294774699888</v>
+        <v>0.02131906578135655</v>
       </c>
       <c r="C58">
-        <v>-0.2641930052690292</v>
+        <v>-0.1747441874864204</v>
       </c>
       <c r="D58">
-        <v>0.0709806277933217</v>
+        <v>-0.03628500799221152</v>
       </c>
       <c r="E58">
-        <v>0.2487911886643861</v>
+        <v>-0.04946870146428845</v>
       </c>
       <c r="F58">
-        <v>-0.2667102537576204</v>
+        <v>-0.325339854166696</v>
       </c>
       <c r="G58">
-        <v>-0.2607653209068334</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>-0.05772130481021604</v>
+      </c>
+      <c r="H58">
+        <v>0.05111286222649841</v>
+      </c>
+      <c r="I58">
+        <v>-0.08184869132180161</v>
+      </c>
+      <c r="J58">
+        <v>-0.07138795367529682</v>
+      </c>
+      <c r="K58">
+        <v>0.4296845835102502</v>
+      </c>
+      <c r="L58">
+        <v>-0.1734717059889955</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B59">
-        <v>0.2795207021195935</v>
+        <v>0.2879392940705467</v>
       </c>
       <c r="C59">
-        <v>0.009582308629492548</v>
+        <v>0.04456319917264125</v>
       </c>
       <c r="D59">
-        <v>0.03807492663530092</v>
+        <v>0.006715611603167448</v>
       </c>
       <c r="E59">
-        <v>0.05062646423993866</v>
+        <v>-0.03642200292762123</v>
       </c>
       <c r="F59">
-        <v>0.04026781805982056</v>
+        <v>-0.03749542719895176</v>
       </c>
       <c r="G59">
-        <v>0.02774538394023155</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>0.004897478741808914</v>
+      </c>
+      <c r="H59">
+        <v>-0.01958602589236286</v>
+      </c>
+      <c r="I59">
+        <v>-0.02356755809361754</v>
+      </c>
+      <c r="J59">
+        <v>0.008373644895274949</v>
+      </c>
+      <c r="K59">
+        <v>-0.02470171713426389</v>
+      </c>
+      <c r="L59">
+        <v>0.02105377512129353</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B60">
-        <v>0.1164652830375098</v>
+        <v>0.1489124613810061</v>
       </c>
       <c r="C60">
-        <v>-0.1511147732056637</v>
+        <v>-0.1573791065945238</v>
       </c>
       <c r="D60">
-        <v>-0.06605452847336099</v>
+        <v>-0.04416985142272651</v>
       </c>
       <c r="E60">
-        <v>-0.0580220445305829</v>
+        <v>-0.002115798861573908</v>
       </c>
       <c r="F60">
-        <v>-0.02179665824075506</v>
+        <v>0.1205896595683868</v>
       </c>
       <c r="G60">
-        <v>0.2953263968323898</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>0.2608120803029234</v>
+      </c>
+      <c r="H60">
+        <v>-0.2236660177862133</v>
+      </c>
+      <c r="I60">
+        <v>0.02196015207045571</v>
+      </c>
+      <c r="J60">
+        <v>-0.02592650072755145</v>
+      </c>
+      <c r="K60">
+        <v>0.02338042612225892</v>
+      </c>
+      <c r="L60">
+        <v>-0.1137168928712725</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B61">
-        <v>0.002926462865653233</v>
+        <v>0.0200205726254982</v>
       </c>
       <c r="C61">
-        <v>-0.08935699139477607</v>
+        <v>-0.09726232605028659</v>
       </c>
       <c r="D61">
-        <v>-0.04827283723916973</v>
+        <v>-0.05045147866137289</v>
       </c>
       <c r="E61">
-        <v>-0.02126113348955552</v>
+        <v>0.001083134910144449</v>
       </c>
       <c r="F61">
-        <v>-0.0072965778948832</v>
+        <v>0.03285911791803528</v>
       </c>
       <c r="G61">
-        <v>0.07415919557131989</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>0.02182636146787617</v>
+      </c>
+      <c r="H61">
+        <v>0.06251174813238537</v>
+      </c>
+      <c r="I61">
+        <v>0.03590208692273855</v>
+      </c>
+      <c r="J61">
+        <v>0.02320764798875677</v>
+      </c>
+      <c r="K61">
+        <v>-0.02159882833919585</v>
+      </c>
+      <c r="L61">
+        <v>0.04820394076904799</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>-0.002094789915456022</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>-0.01317527743834616</v>
       </c>
       <c r="D62">
-        <v>0</v>
+        <v>-0.003506664151732954</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>0.001952047216812863</v>
       </c>
       <c r="F62">
-        <v>0</v>
+        <v>-0.01493618159530543</v>
       </c>
       <c r="G62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
+        <v>0.01494239427353627</v>
+      </c>
+      <c r="H62">
+        <v>0.007067295717592344</v>
+      </c>
+      <c r="I62">
+        <v>0.00318001440533277</v>
+      </c>
+      <c r="J62">
+        <v>0.06492782454329885</v>
+      </c>
+      <c r="K62">
+        <v>-0.009734165277700352</v>
+      </c>
+      <c r="L62">
+        <v>-0.07032120773594416</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B63">
-        <v>-0.0001213023876885788</v>
+        <v>0.0269891950576427</v>
       </c>
       <c r="C63">
-        <v>-0.0739817659573808</v>
+        <v>-0.07145066545193025</v>
       </c>
       <c r="D63">
-        <v>-0.03886371525816661</v>
+        <v>-0.05903994852715007</v>
       </c>
       <c r="E63">
-        <v>-0.02963344468123251</v>
+        <v>-4.458661930340252e-05</v>
       </c>
       <c r="F63">
-        <v>-0.01006350811230661</v>
+        <v>0.02367596016504107</v>
       </c>
       <c r="G63">
-        <v>0.03172689446281188</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>0.001778401485630299</v>
+      </c>
+      <c r="H63">
+        <v>0.061737252720213</v>
+      </c>
+      <c r="I63">
+        <v>0.01972302593558293</v>
+      </c>
+      <c r="J63">
+        <v>0.04608411502789846</v>
+      </c>
+      <c r="K63">
+        <v>-0.02093298010952614</v>
+      </c>
+      <c r="L63">
+        <v>0.04797142982522243</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B64">
-        <v>0.00762333048833192</v>
+        <v>0.01509516947455435</v>
       </c>
       <c r="C64">
-        <v>-0.08140992434551333</v>
+        <v>-0.08908951088975789</v>
       </c>
       <c r="D64">
-        <v>-0.06022201203763179</v>
+        <v>-0.03169647988013766</v>
       </c>
       <c r="E64">
-        <v>0.02043485129731974</v>
+        <v>0.02061047738872424</v>
       </c>
       <c r="F64">
-        <v>-0.03316232153855904</v>
+        <v>-0.0384777853001439</v>
       </c>
       <c r="G64">
-        <v>0.06002339894070182</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>0.06966437143286362</v>
+      </c>
+      <c r="H64">
+        <v>0.05134513664994949</v>
+      </c>
+      <c r="I64">
+        <v>0.04154506930789961</v>
+      </c>
+      <c r="J64">
+        <v>0.04977013558501697</v>
+      </c>
+      <c r="K64">
+        <v>-0.02214209865818838</v>
+      </c>
+      <c r="L64">
+        <v>0.1139679274100103</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B65">
-        <v>0.01388829258402823</v>
+        <v>0.02990992524431064</v>
       </c>
       <c r="C65">
-        <v>-0.07480330443393744</v>
+        <v>-0.09374943693380096</v>
       </c>
       <c r="D65">
-        <v>-0.02608308939726659</v>
+        <v>-0.01821495849280932</v>
       </c>
       <c r="E65">
-        <v>0.03922425581337264</v>
+        <v>0.02464286226898935</v>
       </c>
       <c r="F65">
-        <v>-0.0438136612155178</v>
+        <v>-0.01460242221769007</v>
       </c>
       <c r="G65">
-        <v>0.0166810490588134</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>0.09891769098373361</v>
+      </c>
+      <c r="H65">
+        <v>0.01100227229529741</v>
+      </c>
+      <c r="I65">
+        <v>0.0672889999117724</v>
+      </c>
+      <c r="J65">
+        <v>-0.04155572467625614</v>
+      </c>
+      <c r="K65">
+        <v>0.09879799520765173</v>
+      </c>
+      <c r="L65">
+        <v>0.04682639104239084</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B66">
-        <v>0.004880970690282494</v>
+        <v>0.01304591380804218</v>
       </c>
       <c r="C66">
-        <v>-0.1712231490505895</v>
+        <v>-0.1646451522560583</v>
       </c>
       <c r="D66">
-        <v>-0.01878665193684765</v>
+        <v>-0.04499888056181738</v>
       </c>
       <c r="E66">
-        <v>0.05447502666935913</v>
+        <v>-0.01794467714704766</v>
       </c>
       <c r="F66">
-        <v>-0.02856272143320372</v>
+        <v>-0.004720602801680452</v>
       </c>
       <c r="G66">
-        <v>0.08798109641448915</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>0.0219999455145697</v>
+      </c>
+      <c r="H66">
+        <v>0.0597028202565902</v>
+      </c>
+      <c r="I66">
+        <v>0.0561884163103073</v>
+      </c>
+      <c r="J66">
+        <v>0.01517166892419068</v>
+      </c>
+      <c r="K66">
+        <v>0.0227954096068383</v>
+      </c>
+      <c r="L66">
+        <v>0.04101071857805103</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B67">
-        <v>0.02894194173369399</v>
+        <v>0.02111024462549256</v>
       </c>
       <c r="C67">
-        <v>-0.03952238516639157</v>
+        <v>-0.05400528571498188</v>
       </c>
       <c r="D67">
-        <v>-0.06305739859633082</v>
+        <v>-0.04302159324684472</v>
       </c>
       <c r="E67">
-        <v>-0.03641256630949888</v>
+        <v>0.03359387610036799</v>
       </c>
       <c r="F67">
-        <v>-0.006453955915152793</v>
+        <v>0.01590626584496928</v>
       </c>
       <c r="G67">
-        <v>0.01995626508156362</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>0.01615087649167308</v>
+      </c>
+      <c r="H67">
+        <v>0.06275473053417722</v>
+      </c>
+      <c r="I67">
+        <v>-0.05393964043472355</v>
+      </c>
+      <c r="J67">
+        <v>-0.0248320183797739</v>
+      </c>
+      <c r="K67">
+        <v>-0.06403424254605197</v>
+      </c>
+      <c r="L67">
+        <v>0.1041802810838843</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B68">
-        <v>0.2893601010170517</v>
+        <v>0.2950747297395721</v>
       </c>
       <c r="C68">
-        <v>0.04498967702719299</v>
+        <v>0.07067597562263346</v>
       </c>
       <c r="D68">
-        <v>0.03064970232425123</v>
+        <v>0.02653779465392028</v>
       </c>
       <c r="E68">
-        <v>0.02900552346598874</v>
+        <v>-0.01201644879229369</v>
       </c>
       <c r="F68">
-        <v>-0.007772674712552807</v>
+        <v>-0.03176327686030263</v>
       </c>
       <c r="G68">
-        <v>-0.01586387924190873</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>-0.02039854794007698</v>
+      </c>
+      <c r="H68">
+        <v>0.02692615434893627</v>
+      </c>
+      <c r="I68">
+        <v>-0.03519801621037411</v>
+      </c>
+      <c r="J68">
+        <v>0.07260415926560035</v>
+      </c>
+      <c r="K68">
+        <v>-0.002309821392852399</v>
+      </c>
+      <c r="L68">
+        <v>-0.01749958036425001</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B69">
-        <v>0.0123889573172751</v>
+        <v>0.007350871350197495</v>
       </c>
       <c r="C69">
-        <v>-0.05933168881441814</v>
+        <v>-0.05257597556087306</v>
       </c>
       <c r="D69">
-        <v>-0.04603180594848506</v>
+        <v>-0.02318527970467399</v>
       </c>
       <c r="E69">
-        <v>-0.01745042072857641</v>
+        <v>0.0003521146268524867</v>
       </c>
       <c r="F69">
-        <v>-0.006821540720133975</v>
+        <v>0.01146424682449156</v>
       </c>
       <c r="G69">
-        <v>0.02038766702203186</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>0.02341606483818501</v>
+      </c>
+      <c r="H69">
+        <v>0.05064022188651554</v>
+      </c>
+      <c r="I69">
+        <v>-0.01746379746918739</v>
+      </c>
+      <c r="J69">
+        <v>0.008873675758841725</v>
+      </c>
+      <c r="K69">
+        <v>-0.0178842347117994</v>
+      </c>
+      <c r="L69">
+        <v>0.04048903395463944</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2310,585 +3360,975 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B71">
-        <v>0.2795599505716533</v>
+        <v>0.2764373280400296</v>
       </c>
       <c r="C71">
-        <v>0.05405306056444677</v>
+        <v>0.07580005836512116</v>
       </c>
       <c r="D71">
-        <v>0.03754825840293215</v>
+        <v>0.0250306755776342</v>
       </c>
       <c r="E71">
-        <v>0.02057683525182952</v>
+        <v>-0.001075066353314899</v>
       </c>
       <c r="F71">
-        <v>-0.02480117090438517</v>
+        <v>-0.05864750079682358</v>
       </c>
       <c r="G71">
-        <v>-0.005129542304653414</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>-0.02388812362136529</v>
+      </c>
+      <c r="H71">
+        <v>0.0516569359344167</v>
+      </c>
+      <c r="I71">
+        <v>-0.1214106977386894</v>
+      </c>
+      <c r="J71">
+        <v>0.05497445972922501</v>
+      </c>
+      <c r="K71">
+        <v>0.02585403252140303</v>
+      </c>
+      <c r="L71">
+        <v>0.03472752960204853</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B72">
-        <v>0.03320624646813062</v>
+        <v>0.05412192666327131</v>
       </c>
       <c r="C72">
-        <v>-0.147519409261942</v>
+        <v>-0.1409156848811793</v>
       </c>
       <c r="D72">
-        <v>-0.05488114888557655</v>
+        <v>-0.04275541415534155</v>
       </c>
       <c r="E72">
-        <v>0.02265059169548956</v>
+        <v>0.00765591634676587</v>
       </c>
       <c r="F72">
-        <v>-0.1149545057080821</v>
+        <v>0.02844960992444657</v>
       </c>
       <c r="G72">
-        <v>0.08440495877238502</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>0.0276169680637398</v>
+      </c>
+      <c r="H72">
+        <v>0.02612546732595352</v>
+      </c>
+      <c r="I72">
+        <v>0.114183709527848</v>
+      </c>
+      <c r="J72">
+        <v>-0.03345223373390043</v>
+      </c>
+      <c r="K72">
+        <v>0.07262272788141057</v>
+      </c>
+      <c r="L72">
+        <v>0.05638078629319225</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B73">
-        <v>0.07481509128412278</v>
+        <v>0.1507774282641608</v>
       </c>
       <c r="C73">
-        <v>-0.1303656254548241</v>
+        <v>-0.1953162903249566</v>
       </c>
       <c r="D73">
-        <v>-0.1041622762686574</v>
+        <v>-0.07967754121723962</v>
       </c>
       <c r="E73">
-        <v>-0.138109747434822</v>
+        <v>0.05637741115397862</v>
       </c>
       <c r="F73">
-        <v>-0.07322346040398389</v>
+        <v>0.2314103770879578</v>
       </c>
       <c r="G73">
-        <v>0.3970027423845244</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>0.3950133826887064</v>
+      </c>
+      <c r="H73">
+        <v>-0.2979658773108024</v>
+      </c>
+      <c r="I73">
+        <v>-0.08701177933134273</v>
+      </c>
+      <c r="J73">
+        <v>-0.05152604800942252</v>
+      </c>
+      <c r="K73">
+        <v>0.06611019974863278</v>
+      </c>
+      <c r="L73">
+        <v>-0.003454279445356208</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B74">
-        <v>0.02020853359181152</v>
+        <v>0.04122405391224489</v>
       </c>
       <c r="C74">
-        <v>-0.09762755398025812</v>
+        <v>-0.1032166005433186</v>
       </c>
       <c r="D74">
-        <v>-0.07087086524812752</v>
+        <v>-0.04673462512708119</v>
       </c>
       <c r="E74">
-        <v>-0.07950916867852967</v>
+        <v>0.01746465577995578</v>
       </c>
       <c r="F74">
-        <v>0.05113217808051577</v>
+        <v>0.04259795278970582</v>
       </c>
       <c r="G74">
-        <v>-0.01122672858854553</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>-0.04994569124918826</v>
+      </c>
+      <c r="H74">
+        <v>-0.004102430028097034</v>
+      </c>
+      <c r="I74">
+        <v>0.008976319158702497</v>
+      </c>
+      <c r="J74">
+        <v>0.06948028144960421</v>
+      </c>
+      <c r="K74">
+        <v>0.01503200803441088</v>
+      </c>
+      <c r="L74">
+        <v>0.04749510722995635</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B75">
-        <v>0.06457834668117177</v>
+        <v>0.06412046039437662</v>
       </c>
       <c r="C75">
-        <v>-0.1491681982000486</v>
+        <v>-0.1663391185892159</v>
       </c>
       <c r="D75">
-        <v>-0.0917103982501688</v>
+        <v>-0.08313557738237075</v>
       </c>
       <c r="E75">
-        <v>-0.1877165844924787</v>
+        <v>0.07892573486792887</v>
       </c>
       <c r="F75">
-        <v>0.09408907381701251</v>
+        <v>0.1013179542497998</v>
       </c>
       <c r="G75">
-        <v>-0.1451915968960914</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>-0.2262402365036268</v>
+      </c>
+      <c r="H75">
+        <v>-0.04247700604337045</v>
+      </c>
+      <c r="I75">
+        <v>-0.1210339516698749</v>
+      </c>
+      <c r="J75">
+        <v>0.06413893155990039</v>
+      </c>
+      <c r="K75">
+        <v>-0.08965115127281766</v>
+      </c>
+      <c r="L75">
+        <v>0.06930619849349649</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B76">
-        <v>0.02824693888140898</v>
+        <v>0.04335714012734352</v>
       </c>
       <c r="C76">
-        <v>-0.1194333771569331</v>
+        <v>-0.1258200916977494</v>
       </c>
       <c r="D76">
-        <v>-0.061730714443738</v>
+        <v>-0.07180611067223987</v>
       </c>
       <c r="E76">
-        <v>-0.09847952451145049</v>
+        <v>0.02208909399295279</v>
       </c>
       <c r="F76">
-        <v>0.08787161419826255</v>
+        <v>0.0815547766816683</v>
       </c>
       <c r="G76">
-        <v>-0.001000050086858639</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>-0.08167617734540146</v>
+      </c>
+      <c r="H76">
+        <v>-0.02229551258394463</v>
+      </c>
+      <c r="I76">
+        <v>0.01499841059396444</v>
+      </c>
+      <c r="J76">
+        <v>0.07707831949232352</v>
+      </c>
+      <c r="K76">
+        <v>-0.03868226302263657</v>
+      </c>
+      <c r="L76">
+        <v>0.1114938296845713</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B77">
-        <v>0.0717618042118616</v>
+        <v>0.04723995121375973</v>
       </c>
       <c r="C77">
-        <v>-0.2994538981365752</v>
+        <v>-0.3842998708749547</v>
       </c>
       <c r="D77">
-        <v>0.8573410977676547</v>
+        <v>0.9065278513839963</v>
       </c>
       <c r="E77">
-        <v>-0.3184917260544438</v>
+        <v>0.06116097528129052</v>
       </c>
       <c r="F77">
-        <v>0.004431734695356537</v>
+        <v>0.07453812631166291</v>
       </c>
       <c r="G77">
-        <v>0.04681182176925267</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>-0.03630680473505495</v>
+      </c>
+      <c r="H77">
+        <v>0.05120585197231595</v>
+      </c>
+      <c r="I77">
+        <v>0.00300458732250761</v>
+      </c>
+      <c r="J77">
+        <v>0.02852461660472727</v>
+      </c>
+      <c r="K77">
+        <v>-0.002444906681695955</v>
+      </c>
+      <c r="L77">
+        <v>-0.01207653614718635</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B78">
-        <v>0.03232470426006374</v>
+        <v>0.03505133390086088</v>
       </c>
       <c r="C78">
-        <v>-0.1444032250582363</v>
+        <v>-0.1156332538965583</v>
       </c>
       <c r="D78">
-        <v>-0.09158417839024208</v>
+        <v>-0.09615732344991783</v>
       </c>
       <c r="E78">
-        <v>0.07134374446326203</v>
+        <v>-0.04628895897723195</v>
       </c>
       <c r="F78">
-        <v>0.101627527406675</v>
+        <v>0.01027917015420107</v>
       </c>
       <c r="G78">
-        <v>-0.01214319679901358</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>-0.1168720664431596</v>
+      </c>
+      <c r="H78">
+        <v>0.04167759890249214</v>
+      </c>
+      <c r="I78">
+        <v>0.06093972453674559</v>
+      </c>
+      <c r="J78">
+        <v>0.009558335690033556</v>
+      </c>
+      <c r="K78">
+        <v>0.4394327342136978</v>
+      </c>
+      <c r="L78">
+        <v>-0.04863604424410364</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B79">
-        <v>0.03797437771410308</v>
+        <v>0.05677155416274768</v>
       </c>
       <c r="C79">
-        <v>-0.1726777178111383</v>
+        <v>-0.140594047236433</v>
       </c>
       <c r="D79">
-        <v>-0.1216092973175337</v>
+        <v>-0.06796378629766524</v>
       </c>
       <c r="E79">
-        <v>-0.120269042727805</v>
+        <v>0.006811736077334944</v>
       </c>
       <c r="F79">
-        <v>0.1417162690531005</v>
+        <v>0.06529490087013387</v>
       </c>
       <c r="G79">
-        <v>-0.13769439583207</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7">
+        <v>-0.2356552038600404</v>
+      </c>
+      <c r="H79">
+        <v>-0.01194807124631686</v>
+      </c>
+      <c r="I79">
+        <v>-0.08377662496237182</v>
+      </c>
+      <c r="J79">
+        <v>0.07882658412908078</v>
+      </c>
+      <c r="K79">
+        <v>0.04603831664272295</v>
+      </c>
+      <c r="L79">
+        <v>0.05719237395736632</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B80">
-        <v>0.01225690024539974</v>
+        <v>0.02080657845956037</v>
       </c>
       <c r="C80">
-        <v>-0.05008040012417076</v>
+        <v>-0.05159236496343189</v>
       </c>
       <c r="D80">
-        <v>-0.05485021863046598</v>
+        <v>-0.04015967924606495</v>
       </c>
       <c r="E80">
-        <v>0.001410604344997703</v>
+        <v>-0.0530759486431662</v>
       </c>
       <c r="F80">
-        <v>0.03566859845719916</v>
+        <v>-0.008046096545871082</v>
       </c>
       <c r="G80">
-        <v>-0.005631621982306644</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>0.05544612423231772</v>
+      </c>
+      <c r="H80">
+        <v>-0.02624533841656232</v>
+      </c>
+      <c r="I80">
+        <v>-0.03884931474919134</v>
+      </c>
+      <c r="J80">
+        <v>-0.004844078824620738</v>
+      </c>
+      <c r="K80">
+        <v>-0.08299284403107386</v>
+      </c>
+      <c r="L80">
+        <v>0.08008658836880642</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B81">
-        <v>0.01113322185337996</v>
+        <v>0.01667422899411092</v>
       </c>
       <c r="C81">
-        <v>-0.08778161302438588</v>
+        <v>-0.1010101044529673</v>
       </c>
       <c r="D81">
-        <v>-0.08100842702326012</v>
+        <v>-0.05461885592365735</v>
       </c>
       <c r="E81">
-        <v>-0.1050915184724684</v>
+        <v>0.002391837441536602</v>
       </c>
       <c r="F81">
-        <v>0.09240067001916812</v>
+        <v>0.05237899366418922</v>
       </c>
       <c r="G81">
-        <v>-0.03420129573703753</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>-0.1163527336844267</v>
+      </c>
+      <c r="H81">
+        <v>0.03641475699927434</v>
+      </c>
+      <c r="I81">
+        <v>-0.04716972384812094</v>
+      </c>
+      <c r="J81">
+        <v>0.05285514774229987</v>
+      </c>
+      <c r="K81">
+        <v>-0.03412172381163257</v>
+      </c>
+      <c r="L81">
+        <v>0.08193263326313871</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B82">
-        <v>0.03010022910524645</v>
+        <v>0.04700130728979687</v>
       </c>
       <c r="C82">
-        <v>-0.09447430808423851</v>
+        <v>-0.1058842553503602</v>
       </c>
       <c r="D82">
-        <v>-0.07604744453046317</v>
+        <v>-0.06545772381780966</v>
       </c>
       <c r="E82">
-        <v>-0.1172756870448642</v>
+        <v>0.01401468480905264</v>
       </c>
       <c r="F82">
-        <v>0.06905763529216534</v>
+        <v>0.075223889373682</v>
       </c>
       <c r="G82">
-        <v>-0.00579077344402997</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7">
+        <v>-0.09661512702099188</v>
+      </c>
+      <c r="H82">
+        <v>-0.001699793739074575</v>
+      </c>
+      <c r="I82">
+        <v>-0.01155233557567142</v>
+      </c>
+      <c r="J82">
+        <v>0.05422890332469215</v>
+      </c>
+      <c r="K82">
+        <v>-0.01974362688784092</v>
+      </c>
+      <c r="L82">
+        <v>0.1113107082296106</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B83">
-        <v>0.00324060846183628</v>
+        <v>0.00225346019958448</v>
       </c>
       <c r="C83">
-        <v>-0.03728625026830902</v>
+        <v>0.009174733719781813</v>
       </c>
       <c r="D83">
-        <v>0.1628855461882449</v>
+        <v>0.06076650181076805</v>
       </c>
       <c r="E83">
-        <v>0.4478687522734645</v>
+        <v>-0.9397877903740038</v>
       </c>
       <c r="F83">
-        <v>0.7780599970706923</v>
+        <v>0.1881128473065445</v>
       </c>
       <c r="G83">
-        <v>0.1770554379772966</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>-0.04357356051472149</v>
+      </c>
+      <c r="H83">
+        <v>-0.1052507964432884</v>
+      </c>
+      <c r="I83">
+        <v>0.08385658820636981</v>
+      </c>
+      <c r="J83">
+        <v>0.04335691776707572</v>
+      </c>
+      <c r="K83">
+        <v>0.01964267599932726</v>
+      </c>
+      <c r="L83">
+        <v>0.08188928641288028</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B84">
-        <v>-0.0003443241585360745</v>
+        <v>-0.0007618660573716162</v>
       </c>
       <c r="C84">
-        <v>-0.05471945999749904</v>
+        <v>-0.0429960066640259</v>
       </c>
       <c r="D84">
-        <v>-0.03057594465183883</v>
+        <v>-0.06038915566662419</v>
       </c>
       <c r="E84">
-        <v>0.08602998837390251</v>
+        <v>-0.004747370420852643</v>
       </c>
       <c r="F84">
-        <v>-0.1020320571292194</v>
+        <v>-0.09573630266678876</v>
       </c>
       <c r="G84">
-        <v>-0.1003091179266265</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7">
+        <v>-0.03852338963770342</v>
+      </c>
+      <c r="H84">
+        <v>0.08427247325687574</v>
+      </c>
+      <c r="I84">
+        <v>0.11889923072654</v>
+      </c>
+      <c r="J84">
+        <v>0.02402239361217515</v>
+      </c>
+      <c r="K84">
+        <v>-0.05182800732278914</v>
+      </c>
+      <c r="L84">
+        <v>0.116680546951109</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B85">
-        <v>0.02136326337193628</v>
+        <v>0.02970763031689402</v>
       </c>
       <c r="C85">
-        <v>-0.1319670048048144</v>
+        <v>-0.1167272794789591</v>
       </c>
       <c r="D85">
-        <v>-0.08553457024908448</v>
+        <v>-0.07910719157633764</v>
       </c>
       <c r="E85">
-        <v>-0.1315349782606889</v>
+        <v>0.02877834405018302</v>
       </c>
       <c r="F85">
-        <v>0.1342491150942236</v>
+        <v>0.1278583978226425</v>
       </c>
       <c r="G85">
-        <v>-0.08786996517508586</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>-0.2059446305793272</v>
+      </c>
+      <c r="H85">
+        <v>-0.05281203851486814</v>
+      </c>
+      <c r="I85">
+        <v>-0.05912681652303352</v>
+      </c>
+      <c r="J85">
+        <v>0.1569478867246949</v>
+      </c>
+      <c r="K85">
+        <v>-0.05222742877857684</v>
+      </c>
+      <c r="L85">
+        <v>0.1082903677946369</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B86">
-        <v>0.02025561613513375</v>
+        <v>0.01583579783272987</v>
       </c>
       <c r="C86">
-        <v>-0.06879895522095308</v>
+        <v>-0.08076562261465671</v>
       </c>
       <c r="D86">
-        <v>0.03274859224880795</v>
+        <v>-0.02433823042467266</v>
       </c>
       <c r="E86">
-        <v>0.02777464754272327</v>
+        <v>-0.02585765506448854</v>
       </c>
       <c r="F86">
-        <v>-0.07015199465846476</v>
+        <v>-0.08527559158704134</v>
       </c>
       <c r="G86">
-        <v>0.02361160206692212</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>-0.04601401585927036</v>
+      </c>
+      <c r="H86">
+        <v>0.01517041558470115</v>
+      </c>
+      <c r="I86">
+        <v>-0.1605085928269008</v>
+      </c>
+      <c r="J86">
+        <v>-0.08799296794802056</v>
+      </c>
+      <c r="K86">
+        <v>0.1466062391513142</v>
+      </c>
+      <c r="L86">
+        <v>0.09135175886679692</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B87">
-        <v>0.0420032919086669</v>
+        <v>0.02667130670380504</v>
       </c>
       <c r="C87">
-        <v>-0.1475212795377896</v>
+        <v>-0.1173528295268268</v>
       </c>
       <c r="D87">
-        <v>-0.01740623258604788</v>
+        <v>-0.01710088381540037</v>
       </c>
       <c r="E87">
-        <v>0.1072768826654496</v>
+        <v>-0.01197158042325676</v>
       </c>
       <c r="F87">
-        <v>-0.01929364605495802</v>
+        <v>-0.06988999271560012</v>
       </c>
       <c r="G87">
-        <v>-0.02969719287850816</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>-0.008837113803728133</v>
+      </c>
+      <c r="H87">
+        <v>0.04085401183749853</v>
+      </c>
+      <c r="I87">
+        <v>0.09395973570751348</v>
+      </c>
+      <c r="J87">
+        <v>0.08045355382941338</v>
+      </c>
+      <c r="K87">
+        <v>0.07216839871010658</v>
+      </c>
+      <c r="L87">
+        <v>-0.04382643656184633</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B88">
-        <v>0.006144491223277313</v>
+        <v>0.03825350283306838</v>
       </c>
       <c r="C88">
-        <v>-0.03830483066647183</v>
+        <v>-0.06377940738470576</v>
       </c>
       <c r="D88">
-        <v>-0.04889706882163618</v>
+        <v>-0.04146108744674299</v>
       </c>
       <c r="E88">
-        <v>-0.05950799540886278</v>
+        <v>0.01947390233085257</v>
       </c>
       <c r="F88">
-        <v>-0.008465942135585113</v>
+        <v>0.01800325665658568</v>
       </c>
       <c r="G88">
-        <v>0.01274479888141923</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>0.02392793961523794</v>
+      </c>
+      <c r="H88">
+        <v>0.006530492253202466</v>
+      </c>
+      <c r="I88">
+        <v>-0.01830038784984115</v>
+      </c>
+      <c r="J88">
+        <v>0.01102555742181082</v>
+      </c>
+      <c r="K88">
+        <v>-0.08901305496504239</v>
+      </c>
+      <c r="L88">
+        <v>0.1201041316242276</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B89">
-        <v>0.3866430213420288</v>
+        <v>0.3902668645817419</v>
       </c>
       <c r="C89">
-        <v>0.1018009621262898</v>
+        <v>0.1169540664641539</v>
       </c>
       <c r="D89">
-        <v>-0.1071415323612552</v>
+        <v>0.03220693001085546</v>
       </c>
       <c r="E89">
-        <v>0.09052184277425276</v>
+        <v>0.03307792269147831</v>
       </c>
       <c r="F89">
-        <v>-0.01486945513734046</v>
+        <v>-0.07759465393419636</v>
       </c>
       <c r="G89">
-        <v>-0.08777493964940607</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>0.03596715250337916</v>
+      </c>
+      <c r="H89">
+        <v>0.01920987186004003</v>
+      </c>
+      <c r="I89">
+        <v>0.7265925237488245</v>
+      </c>
+      <c r="J89">
+        <v>-0.126134675589626</v>
+      </c>
+      <c r="K89">
+        <v>0.02497350971324677</v>
+      </c>
+      <c r="L89">
+        <v>0.05530805569855964</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B90">
-        <v>0.3042392799664681</v>
+        <v>0.3145418906155248</v>
       </c>
       <c r="C90">
-        <v>0.03756017657239181</v>
+        <v>0.07497842149388087</v>
       </c>
       <c r="D90">
-        <v>0.01480623497573133</v>
+        <v>0.01688411773569823</v>
       </c>
       <c r="E90">
-        <v>0.06964875841153585</v>
+        <v>-0.02640989748643352</v>
       </c>
       <c r="F90">
-        <v>0.03461347460779342</v>
+        <v>-0.03142867536646843</v>
       </c>
       <c r="G90">
-        <v>0.03736075575013098</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>-0.01277621940270498</v>
+      </c>
+      <c r="H90">
+        <v>0.01923376270282046</v>
+      </c>
+      <c r="I90">
+        <v>-0.08604628215471258</v>
+      </c>
+      <c r="J90">
+        <v>0.01162666534830521</v>
+      </c>
+      <c r="K90">
+        <v>0.004584253613080081</v>
+      </c>
+      <c r="L90">
+        <v>-0.02764905866047818</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B91">
-        <v>0.03537805783791372</v>
+        <v>0.05295918747441056</v>
       </c>
       <c r="C91">
-        <v>-0.08957238574395802</v>
+        <v>-0.08681502726755623</v>
       </c>
       <c r="D91">
-        <v>-0.04900245895928405</v>
+        <v>-0.04349081256410962</v>
       </c>
       <c r="E91">
-        <v>-0.0731297590818531</v>
+        <v>-0.01339533968673827</v>
       </c>
       <c r="F91">
-        <v>0.08063072453993071</v>
+        <v>0.06397267897360089</v>
       </c>
       <c r="G91">
-        <v>-0.03716036985328358</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>-0.07836939924318936</v>
+      </c>
+      <c r="H91">
+        <v>-0.0329213643062189</v>
+      </c>
+      <c r="I91">
+        <v>0.001285913102283273</v>
+      </c>
+      <c r="J91">
+        <v>0.01086327876853902</v>
+      </c>
+      <c r="K91">
+        <v>-0.05229584000149789</v>
+      </c>
+      <c r="L91">
+        <v>0.03710431572388353</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B92">
-        <v>0.3834697894122347</v>
+        <v>0.3544634619210151</v>
       </c>
       <c r="C92">
-        <v>0.09440965949134775</v>
+        <v>0.121526967583036</v>
       </c>
       <c r="D92">
-        <v>0.01585002847129342</v>
+        <v>0.05346618857251847</v>
       </c>
       <c r="E92">
-        <v>-0.02319357809080346</v>
+        <v>0.02868529728992063</v>
       </c>
       <c r="F92">
-        <v>-0.09419651564089909</v>
+        <v>-0.05774455054439441</v>
       </c>
       <c r="G92">
-        <v>-0.04446876353498501</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>-0.01154858882061014</v>
+      </c>
+      <c r="H92">
+        <v>0.06906512282997394</v>
+      </c>
+      <c r="I92">
+        <v>-0.1567968652632507</v>
+      </c>
+      <c r="J92">
+        <v>-0.009940096108218397</v>
+      </c>
+      <c r="K92">
+        <v>-0.006567123975072561</v>
+      </c>
+      <c r="L92">
+        <v>-0.04493763659696635</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B93">
-        <v>0.29960219274578</v>
+        <v>0.3108005556072048</v>
       </c>
       <c r="C93">
-        <v>0.08507486864742266</v>
+        <v>0.1115100057574031</v>
       </c>
       <c r="D93">
-        <v>-0.01135398339383021</v>
+        <v>0.007551438567686577</v>
       </c>
       <c r="E93">
-        <v>0.05899304147678804</v>
+        <v>-0.01576001652914127</v>
       </c>
       <c r="F93">
-        <v>-0.006578448135235767</v>
+        <v>-0.03515285751171791</v>
       </c>
       <c r="G93">
-        <v>-0.01984384282184082</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>-0.04095069113264741</v>
+      </c>
+      <c r="H93">
+        <v>0.03294100522478514</v>
+      </c>
+      <c r="I93">
+        <v>-0.1027226263059582</v>
+      </c>
+      <c r="J93">
+        <v>0.009143310362846416</v>
+      </c>
+      <c r="K93">
+        <v>0.003066811053478162</v>
+      </c>
+      <c r="L93">
+        <v>0.04081321356148358</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B94">
-        <v>0.05447163181928404</v>
+        <v>0.07904807910007906</v>
       </c>
       <c r="C94">
-        <v>-0.2102278303889812</v>
+        <v>-0.1682785694194728</v>
       </c>
       <c r="D94">
-        <v>-0.1661359682047333</v>
+        <v>-0.1046929070520602</v>
       </c>
       <c r="E94">
-        <v>-0.2613269470543783</v>
+        <v>0.03812544684605243</v>
       </c>
       <c r="F94">
-        <v>0.2838186881997521</v>
+        <v>0.1485606230009045</v>
       </c>
       <c r="G94">
-        <v>-0.500981947249631</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>-0.5305689289298876</v>
+      </c>
+      <c r="H94">
+        <v>-0.2370799301233229</v>
+      </c>
+      <c r="I94">
+        <v>0.1375217110314846</v>
+      </c>
+      <c r="J94">
+        <v>-0.2556120950718607</v>
+      </c>
+      <c r="K94">
+        <v>-0.1855461805342241</v>
+      </c>
+      <c r="L94">
+        <v>-0.5163525102677439</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B95">
-        <v>0.03679119679133609</v>
+        <v>0.03821062051394297</v>
       </c>
       <c r="C95">
-        <v>-0.1031044008998981</v>
+        <v>-0.1298559155360945</v>
       </c>
       <c r="D95">
-        <v>-0.03271127174440967</v>
+        <v>-0.05826284566290051</v>
       </c>
       <c r="E95">
-        <v>-0.05353283518123708</v>
+        <v>0.04546972884235977</v>
       </c>
       <c r="F95">
-        <v>0.06516930094298551</v>
+        <v>0.07327542079769428</v>
       </c>
       <c r="G95">
-        <v>0.1546302886435821</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>0.04571220027565838</v>
+      </c>
+      <c r="H95">
+        <v>0.07243401842018854</v>
+      </c>
+      <c r="I95">
+        <v>0.178552655974127</v>
+      </c>
+      <c r="J95">
+        <v>0.1444070032099531</v>
+      </c>
+      <c r="K95">
+        <v>-0.2190580141546845</v>
+      </c>
+      <c r="L95">
+        <v>0.1602696143058202</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2908,79 +4348,139 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+      <c r="L96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B97">
-        <v>7.790768276227433e-05</v>
+        <v>0.01154884606978574</v>
       </c>
       <c r="C97">
-        <v>-0.0004817250411483664</v>
+        <v>-0.01702511126547509</v>
       </c>
       <c r="D97">
-        <v>0.0002050649197387984</v>
+        <v>0.009216987615730237</v>
       </c>
       <c r="E97">
-        <v>0.0002258991524210863</v>
+        <v>0.02870157367220932</v>
       </c>
       <c r="F97">
-        <v>-0.0009664418066246807</v>
+        <v>-0.0161171223691357</v>
       </c>
       <c r="G97">
-        <v>-0.001724436552625162</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7">
+        <v>0.0266019279500917</v>
+      </c>
+      <c r="H97">
+        <v>0.03773321934361701</v>
+      </c>
+      <c r="I97">
+        <v>0.01230381205258289</v>
+      </c>
+      <c r="J97">
+        <v>-0.1399131713670985</v>
+      </c>
+      <c r="K97">
+        <v>-0.001278277718812812</v>
+      </c>
+      <c r="L97">
+        <v>0.06651871012457866</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B98">
-        <v>0.09213950422536153</v>
+        <v>0.1311297410077768</v>
       </c>
       <c r="C98">
-        <v>-0.1467328288806472</v>
+        <v>-0.1574451201502458</v>
       </c>
       <c r="D98">
-        <v>-0.1077564692521787</v>
+        <v>-0.08724971259368913</v>
       </c>
       <c r="E98">
-        <v>-0.06522304113984383</v>
+        <v>0.04860796346855191</v>
       </c>
       <c r="F98">
-        <v>-0.06379132489186616</v>
+        <v>0.2036525792996573</v>
       </c>
       <c r="G98">
-        <v>0.2684048979096955</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>0.3430563632159774</v>
+      </c>
+      <c r="H98">
+        <v>-0.3300652790519033</v>
+      </c>
+      <c r="I98">
+        <v>-0.1078934444653154</v>
+      </c>
+      <c r="J98">
+        <v>-0.08365053145115064</v>
+      </c>
+      <c r="K98">
+        <v>0.09333196932253011</v>
+      </c>
+      <c r="L98">
+        <v>-0.1925465677488742</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B99">
-        <v>0</v>
+        <v>0.01040450495505452</v>
       </c>
       <c r="C99">
-        <v>0</v>
+        <v>-0.04084410725648648</v>
       </c>
       <c r="D99">
-        <v>0</v>
+        <v>0.001712856600115394</v>
       </c>
       <c r="E99">
-        <v>0</v>
+        <v>0.005160862893208405</v>
       </c>
       <c r="F99">
-        <v>0</v>
+        <v>0.06588929539361915</v>
       </c>
       <c r="G99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7">
+        <v>-0.05849386314844342</v>
+      </c>
+      <c r="H99">
+        <v>0.09649381464965266</v>
+      </c>
+      <c r="I99">
+        <v>-0.07317414750433311</v>
+      </c>
+      <c r="J99">
+        <v>-0.8228389288949178</v>
+      </c>
+      <c r="K99">
+        <v>0.02638614895447729</v>
+      </c>
+      <c r="L99">
+        <v>0.3444812674471275</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3000,56 +4500,101 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+      <c r="L100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B101">
-        <v>0.008081412983730447</v>
+        <v>0.01372737910429577</v>
       </c>
       <c r="C101">
-        <v>-0.0732489402997485</v>
+        <v>-0.08035780560664667</v>
       </c>
       <c r="D101">
-        <v>-0.03983685284589923</v>
+        <v>-0.05227187596140399</v>
       </c>
       <c r="E101">
-        <v>0.03551419456965808</v>
+        <v>-0.05541343670757384</v>
       </c>
       <c r="F101">
-        <v>-0.01232881065609387</v>
+        <v>0.01634427301940739</v>
       </c>
       <c r="G101">
-        <v>0.09579006320632415</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>0.1089472557314872</v>
+      </c>
+      <c r="H101">
+        <v>0.2988251939161097</v>
+      </c>
+      <c r="I101">
+        <v>0.0383087243930411</v>
+      </c>
+      <c r="J101">
+        <v>-0.06074166114420336</v>
+      </c>
+      <c r="K101">
+        <v>-0.1529626160978594</v>
+      </c>
+      <c r="L101">
+        <v>-0.295298020421891</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B102">
-        <v>0.01001771140033826</v>
+        <v>0.003727275463042687</v>
       </c>
       <c r="C102">
-        <v>-0.03137601151701538</v>
+        <v>-0.01223040171821846</v>
       </c>
       <c r="D102">
-        <v>-0.009252651008840226</v>
+        <v>-0.001516875161559202</v>
       </c>
       <c r="E102">
-        <v>-0.0257023532790231</v>
+        <v>-0.003752085887651195</v>
       </c>
       <c r="F102">
-        <v>0.03068521732852563</v>
+        <v>0.009619752747547899</v>
       </c>
       <c r="G102">
-        <v>0.0008271578379112685</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>-0.00925859943293374</v>
+      </c>
+      <c r="H102">
+        <v>0.000666849870509617</v>
+      </c>
+      <c r="I102">
+        <v>0.01825485577466433</v>
+      </c>
+      <c r="J102">
+        <v>-0.01052981182393492</v>
+      </c>
+      <c r="K102">
+        <v>0.002838035770300442</v>
+      </c>
+      <c r="L102">
+        <v>-0.02741663232592574</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -3069,10 +4614,25 @@
       <c r="G103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:7">
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+      <c r="L103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3090,6 +4650,21 @@
         <v>0</v>
       </c>
       <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
+        <v>0</v>
+      </c>
+      <c r="L104">
         <v>0</v>
       </c>
     </row>
